--- a/biology/Zoologie/Intellagama_lesueurii/Intellagama_lesueurii.xlsx
+++ b/biology/Zoologie/Intellagama_lesueurii/Intellagama_lesueurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">dragon d'eau australien, agame aquatique
-Intellagama lesueurii, unique représentant du genre Intellagama, est une espèce de sauriens de la famille des Agamidae[1]. Il peut être appelé dragon d'eau australien ou agame aquatique.
+Intellagama lesueurii, unique représentant du genre Intellagama, est une espèce de sauriens de la famille des Agamidae. Il peut être appelé dragon d'eau australien ou agame aquatique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre au Queensland, en Nouvelle-Galles du Sud et au Victoria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre au Queensland, en Nouvelle-Galles du Sud et au Victoria.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carnivore, le dragon d'eau est un très bon nageur qui peut rester trente minutes sous l'eau. Les femelles pondent de 6 à 20 œufs au moins une fois par an. L'incubation dure de 70 à 120 jours.
 La taille adulte pour un mâle peut atteindre de 70 à 90 cm, celle de la femelle étant de 60 cm.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 décembre 2013) :
 Intellagama lesueurii howittii (Mccoy, 1884)
 Intellagama lesueurii lesueurii (Gray, 1831)</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce avait été placée dans le genre Istiurus par Townsend et al., 2011[3] mais celui-ci avait été créé par Georges Cuvier pour Lacerta amboinensis, elle est donc placée dans le genre Intellagama par Amey, Couper, Shea, 2012[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce avait été placée dans le genre Istiurus par Townsend et al., 2011 mais celui-ci avait été créé par Georges Cuvier pour Lacerta amboinensis, elle est donc placée dans le genre Intellagama par Amey, Couper, Shea, 2012.
 			Intellagama lesueurii lesueurii (Sydney)
 			Intellagama lesueurii howittii
 			Un dragon d'eau australien (Intellagama lesueurii) émergeant des eaux d'un étang du City Botanic Gardens à Brisbane en Australie.
@@ -642,9 +662,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V. Whittaker, Treacher and Co., Londres, vol. 9, p. 1-481 (texte intégral).
 (en) McCoy, 1884 : The Gippsland water lizard. Prodromus of The Zoology of Victoria, vol. 9, p. 7-10 (texte intégral).
